--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.49007182514885</v>
+        <v>4.370833</v>
       </c>
       <c r="H2">
-        <v>1.49007182514885</v>
+        <v>13.112499</v>
       </c>
       <c r="I2">
-        <v>0.03674649322971985</v>
+        <v>0.0996525630698175</v>
       </c>
       <c r="J2">
-        <v>0.03674649322971985</v>
+        <v>0.09965256306981748</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.49007182514885</v>
+        <v>4.370833</v>
       </c>
       <c r="N2">
-        <v>1.49007182514885</v>
+        <v>13.112499</v>
       </c>
       <c r="O2">
-        <v>0.03674649322971985</v>
+        <v>0.0996525630698175</v>
       </c>
       <c r="P2">
-        <v>0.03674649322971985</v>
+        <v>0.09965256306981748</v>
       </c>
       <c r="Q2">
-        <v>2.220314044102425</v>
+        <v>19.104181113889</v>
       </c>
       <c r="R2">
-        <v>2.220314044102425</v>
+        <v>171.937630025001</v>
       </c>
       <c r="S2">
-        <v>0.001350304764681846</v>
+        <v>0.009930633326383954</v>
       </c>
       <c r="T2">
-        <v>0.001350304764681846</v>
+        <v>0.009930633326383952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,52 +587,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.49007182514885</v>
+        <v>4.370833</v>
       </c>
       <c r="H3">
-        <v>1.49007182514885</v>
+        <v>13.112499</v>
       </c>
       <c r="I3">
-        <v>0.03674649322971985</v>
+        <v>0.0996525630698175</v>
       </c>
       <c r="J3">
-        <v>0.03674649322971985</v>
+        <v>0.09965256306981748</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.1949807219897</v>
+        <v>37.55834333333333</v>
       </c>
       <c r="N3">
-        <v>37.1949807219897</v>
+        <v>112.67503</v>
       </c>
       <c r="O3">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905953</v>
       </c>
       <c r="P3">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905952</v>
       </c>
       <c r="Q3">
-        <v>55.42319281079148</v>
+        <v>164.1612464666633</v>
       </c>
       <c r="R3">
-        <v>55.42319281079148</v>
+        <v>1477.45121819997</v>
       </c>
       <c r="S3">
-        <v>0.03370613338463396</v>
+        <v>0.08533342179620465</v>
       </c>
       <c r="T3">
-        <v>0.03370613338463396</v>
+        <v>0.08533342179620464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,52 +649,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.49007182514885</v>
+        <v>4.370833</v>
       </c>
       <c r="H4">
-        <v>1.49007182514885</v>
+        <v>13.112499</v>
       </c>
       <c r="I4">
-        <v>0.03674649322971985</v>
+        <v>0.0996525630698175</v>
       </c>
       <c r="J4">
-        <v>0.03674649322971985</v>
+        <v>0.09965256306981748</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.86498894481282</v>
+        <v>1.931542</v>
       </c>
       <c r="N4">
-        <v>1.86498894481282</v>
+        <v>5.794626</v>
       </c>
       <c r="O4">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958729</v>
       </c>
       <c r="P4">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958728</v>
       </c>
       <c r="Q4">
-        <v>2.778967480879667</v>
+        <v>8.442447514486</v>
       </c>
       <c r="R4">
-        <v>2.778967480879667</v>
+        <v>75.98202763037401</v>
       </c>
       <c r="S4">
-        <v>0.00169005508040403</v>
+        <v>0.004388507947228896</v>
       </c>
       <c r="T4">
-        <v>0.00169005508040403</v>
+        <v>0.004388507947228894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.1949807219897</v>
+        <v>37.55834333333333</v>
       </c>
       <c r="H5">
-        <v>37.1949807219897</v>
+        <v>112.67503</v>
       </c>
       <c r="I5">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905953</v>
       </c>
       <c r="J5">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905952</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.49007182514885</v>
+        <v>4.370833</v>
       </c>
       <c r="N5">
-        <v>1.49007182514885</v>
+        <v>13.112499</v>
       </c>
       <c r="O5">
-        <v>0.03674649322971985</v>
+        <v>0.0996525630698175</v>
       </c>
       <c r="P5">
-        <v>0.03674649322971985</v>
+        <v>0.09965256306981748</v>
       </c>
       <c r="Q5">
-        <v>55.42319281079148</v>
+        <v>164.1612464666633</v>
       </c>
       <c r="R5">
-        <v>55.42319281079148</v>
+        <v>1477.45121819997</v>
       </c>
       <c r="S5">
-        <v>0.03370613338463396</v>
+        <v>0.08533342179620465</v>
       </c>
       <c r="T5">
-        <v>0.03370613338463396</v>
+        <v>0.08533342179620464</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,52 +773,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.1949807219897</v>
+        <v>37.55834333333333</v>
       </c>
       <c r="H6">
-        <v>37.1949807219897</v>
+        <v>112.67503</v>
       </c>
       <c r="I6">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905953</v>
       </c>
       <c r="J6">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905952</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.1949807219897</v>
+        <v>37.55834333333333</v>
       </c>
       <c r="N6">
-        <v>37.1949807219897</v>
+        <v>112.67503</v>
       </c>
       <c r="O6">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905953</v>
       </c>
       <c r="P6">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905952</v>
       </c>
       <c r="Q6">
-        <v>1383.466590909185</v>
+        <v>1410.629153944544</v>
       </c>
       <c r="R6">
-        <v>1383.466590909185</v>
+        <v>12695.6623855009</v>
       </c>
       <c r="S6">
-        <v>0.8413681544035879</v>
+        <v>0.73326570784791</v>
       </c>
       <c r="T6">
-        <v>0.8413681544035879</v>
+        <v>0.7332657078479099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,52 +835,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.1949807219897</v>
+        <v>37.55834333333333</v>
       </c>
       <c r="H7">
-        <v>37.1949807219897</v>
+        <v>112.67503</v>
       </c>
       <c r="I7">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905953</v>
       </c>
       <c r="J7">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905952</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86498894481282</v>
+        <v>1.931542</v>
       </c>
       <c r="N7">
-        <v>1.86498894481282</v>
+        <v>5.794626</v>
       </c>
       <c r="O7">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958729</v>
       </c>
       <c r="P7">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958728</v>
       </c>
       <c r="Q7">
-        <v>69.36822784903676</v>
+        <v>72.54551759875334</v>
       </c>
       <c r="R7">
-        <v>69.36822784903676</v>
+        <v>652.9096583887799</v>
       </c>
       <c r="S7">
-        <v>0.0421869369474516</v>
+        <v>0.03771022324648064</v>
       </c>
       <c r="T7">
-        <v>0.0421869369474516</v>
+        <v>0.03771022324648064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,52 +897,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.86498894481282</v>
+        <v>1.931542</v>
       </c>
       <c r="H8">
-        <v>1.86498894481282</v>
+        <v>5.794626</v>
       </c>
       <c r="I8">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958729</v>
       </c>
       <c r="J8">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958728</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.49007182514885</v>
+        <v>4.370833</v>
       </c>
       <c r="N8">
-        <v>1.49007182514885</v>
+        <v>13.112499</v>
       </c>
       <c r="O8">
-        <v>0.03674649322971985</v>
+        <v>0.0996525630698175</v>
       </c>
       <c r="P8">
-        <v>0.03674649322971985</v>
+        <v>0.09965256306981748</v>
       </c>
       <c r="Q8">
-        <v>2.778967480879667</v>
+        <v>8.442447514486</v>
       </c>
       <c r="R8">
-        <v>2.778967480879667</v>
+        <v>75.98202763037401</v>
       </c>
       <c r="S8">
-        <v>0.00169005508040403</v>
+        <v>0.004388507947228896</v>
       </c>
       <c r="T8">
-        <v>0.00169005508040403</v>
+        <v>0.004388507947228894</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,52 +959,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.86498894481282</v>
+        <v>1.931542</v>
       </c>
       <c r="H9">
-        <v>1.86498894481282</v>
+        <v>5.794626</v>
       </c>
       <c r="I9">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958729</v>
       </c>
       <c r="J9">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958728</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.1949807219897</v>
+        <v>37.55834333333333</v>
       </c>
       <c r="N9">
-        <v>37.1949807219897</v>
+        <v>112.67503</v>
       </c>
       <c r="O9">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905953</v>
       </c>
       <c r="P9">
-        <v>0.9172612247356736</v>
+        <v>0.8563093528905952</v>
       </c>
       <c r="Q9">
-        <v>69.36822784903676</v>
+        <v>72.54551759875334</v>
       </c>
       <c r="R9">
-        <v>69.36822784903676</v>
+        <v>652.9096583887799</v>
       </c>
       <c r="S9">
-        <v>0.0421869369474516</v>
+        <v>0.03771022324648064</v>
       </c>
       <c r="T9">
-        <v>0.0421869369474516</v>
+        <v>0.03771022324648064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,52 +1021,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.86498894481282</v>
+        <v>1.931542</v>
       </c>
       <c r="H10">
-        <v>1.86498894481282</v>
+        <v>5.794626</v>
       </c>
       <c r="I10">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958729</v>
       </c>
       <c r="J10">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958728</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.86498894481282</v>
+        <v>1.931542</v>
       </c>
       <c r="N10">
-        <v>1.86498894481282</v>
+        <v>5.794626</v>
       </c>
       <c r="O10">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958729</v>
       </c>
       <c r="P10">
-        <v>0.04599228203460642</v>
+        <v>0.04403808403958728</v>
       </c>
       <c r="Q10">
-        <v>3.478183764274036</v>
+        <v>3.730854497764001</v>
       </c>
       <c r="R10">
-        <v>3.478183764274036</v>
+        <v>33.577690479876</v>
       </c>
       <c r="S10">
-        <v>0.00211529000675078</v>
+        <v>0.001939352845877753</v>
       </c>
       <c r="T10">
-        <v>0.00211529000675078</v>
+        <v>0.001939352845877752</v>
       </c>
     </row>
   </sheetData>
